--- a/Partie 1 - RefSQL/Excel/Fiche_Suivi_RefSQL.xlsx
+++ b/Partie 1 - RefSQL/Excel/Fiche_Suivi_RefSQL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILYASS\Desktop\Stage\Mission\Partie 1 - RefSQL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C91A24-DD50-4DD9-B63F-713BA2F65A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282052D5-ED86-4C9B-847E-A446550A6B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="235">
   <si>
     <t>idSQL</t>
   </si>
@@ -812,6 +812,30 @@
   <si>
     <t>pour le moment les les tables doivent respecter le model definit dans le csv de depart               
 apres on peut generalisé les cas en important chaque collonne individuelement</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>T028</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>T031</t>
+  </si>
+  <si>
+    <t>FIN DU MODULE</t>
+  </si>
+  <si>
+    <t>Fin de la partie Refsql en attente de la nouvelle BDD</t>
   </si>
 </sst>
 </file>
@@ -868,7 +892,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +953,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -968,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -999,6 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2483,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17497654-F13B-4E71-A230-9CAA573B118D}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2912,86 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45436</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
